--- a/citas/SAN RAMON_citas_disponibles.xlsx
+++ b/citas/SAN RAMON_citas_disponibles.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jueves 16/05/2024</t>
+          <t>Jueves 23/05/2024</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Viernes 17/05/2024</t>
+          <t>Lunes 27/05/2024</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lunes 20/05/2024</t>
+          <t>Martes 28/05/2024</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Martes 21/05/2024</t>
+          <t>Miércoles 29/05/2024</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Miércoles 22/05/2024</t>
+          <t>Jueves 30/05/2024</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Jueves 23/05/2024</t>
+          <t>Viernes 31/05/2024</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Lunes 27/05/2024</t>
+          <t>Lunes 03/06/2024</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Martes 28/05/2024</t>
+          <t>Martes 04/06/2024</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Miércoles 29/05/2024</t>
+          <t>Miércoles 05/06/2024</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Jueves 30/05/2024</t>
+          <t>Jueves 06/06/2024</t>
         </is>
       </c>
     </row>

--- a/citas/SAN RAMON_citas_disponibles.xlsx
+++ b/citas/SAN RAMON_citas_disponibles.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jueves 23/05/2024</t>
+          <t>Lunes 27/05/2024</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lunes 27/05/2024</t>
+          <t>Martes 28/05/2024</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Martes 28/05/2024</t>
+          <t>Miércoles 29/05/2024</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Miércoles 29/05/2024</t>
+          <t>Jueves 30/05/2024</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Jueves 30/05/2024</t>
+          <t>Viernes 31/05/2024</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Viernes 31/05/2024</t>
+          <t>Lunes 03/06/2024</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Lunes 03/06/2024</t>
+          <t>Martes 04/06/2024</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Martes 04/06/2024</t>
+          <t>Miércoles 05/06/2024</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Miércoles 05/06/2024</t>
+          <t>Jueves 06/06/2024</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Jueves 06/06/2024</t>
+          <t>Viernes 07/06/2024</t>
         </is>
       </c>
     </row>

--- a/citas/SAN RAMON_citas_disponibles.xlsx
+++ b/citas/SAN RAMON_citas_disponibles.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lunes 27/05/2024</t>
+          <t>Jueves 06/06/2024</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Martes 28/05/2024</t>
+          <t>Viernes 07/06/2024</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Miércoles 29/05/2024</t>
+          <t>Lunes 10/06/2024</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jueves 30/05/2024</t>
+          <t>Martes 11/06/2024</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Viernes 31/05/2024</t>
+          <t>Miércoles 12/06/2024</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Lunes 03/06/2024</t>
+          <t>Jueves 13/06/2024</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Martes 04/06/2024</t>
+          <t>Viernes 14/06/2024</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Miércoles 05/06/2024</t>
+          <t>Lunes 24/06/2024</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Jueves 06/06/2024</t>
+          <t>Martes 25/06/2024</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Viernes 07/06/2024</t>
+          <t>Miércoles 26/06/2024</t>
         </is>
       </c>
     </row>
